--- a/va_facility_data_2025-02-20/Dunkirk VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Dunkirk%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Dunkirk VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Dunkirk%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rf180d65454fd417793c7e7a9caa4b123"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R712fb3c9edf34363806cfbab981628f6"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R5c37cab3820f46bea63bfe7f6b8517f5"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R620554d6c03842c3abfe9bbf68af13ac"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R5983cf2fcfa546debe89a6bc1bae3a5b"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R484887357cfb4470915758f4b6f15862"/>
   </x:sheets>
 </x:workbook>
 </file>
